--- a/Load/ontology/script/raw_detection_template.xlsx
+++ b/Load/ontology/script/raw_detection_template.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10811"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10909"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jjudkins/ontology/script/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68E9AEDA-56A8-B743-8638-8C27CCBE87CF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59417DB4-F22F-0544-B231-8921CFA204E5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19340" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1057,7 +1057,7 @@
       <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="O3" sqref="O3:O12"/>
+      <selection pane="bottomRight" activeCell="N3" sqref="N3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1170,7 +1170,7 @@
         <v>17</v>
       </c>
       <c r="N3" s="2" t="str">
-        <f t="shared" ref="N3:N12" si="0">IF($H3="",$G3,"")
+        <f>TRIM(IF($H3="",$G3,"")
 &amp;IF($H3&lt;&gt;"",$H3,"")
 &amp;IF(AND($L3="LT",I3="ST")," LT-neg ST-pos",
 IF($I3&lt;&gt;""," "&amp;$I3,"")
@@ -1178,11 +1178,11 @@
 &amp;IF($K3&lt;&gt;""," "&amp;$K3,"")
 &amp;IF($J3&lt;&gt;""," "&amp;$J3&amp;"-pos","")
 &amp;IF($L3&lt;&gt;""," "&amp;$L3&amp;"-neg",""))
-&amp;IF($D3&lt;&gt;""," "&amp;$D3,"")&amp;", by "&amp;$C3&amp;" result"</f>
+&amp;IF($D3&lt;&gt;""," "&amp;$D3,"")&amp;", by "&amp;$C3&amp;" result")</f>
         <v>Vibrio cholerae, by bacteriology result</v>
       </c>
       <c r="O3" s="2" t="str">
-        <f>"Raw "&amp;LOWER($E3)&amp;" data for "&amp;$B3</f>
+        <f>TRIM("Raw "&amp;LOWER($E3)&amp;" data for "&amp;$B3)</f>
         <v>Raw bacteria data for stool</v>
       </c>
     </row>
@@ -1203,11 +1203,19 @@
         <v>23</v>
       </c>
       <c r="N4" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="N4:N12" si="0">TRIM(IF($H4="",$G4,"")
+&amp;IF($H4&lt;&gt;"",$H4,"")
+&amp;IF(AND($L4="LT",I4="ST")," LT-neg ST-pos",
+IF($I4&lt;&gt;""," "&amp;$I4,"")
+&amp;IF(OR($I4="LT",$I4="ST",AND($D4="",$I4&lt;&gt;"")),"-pos","")
+&amp;IF($K4&lt;&gt;""," "&amp;$K4,"")
+&amp;IF($J4&lt;&gt;""," "&amp;$J4&amp;"-pos","")
+&amp;IF($L4&lt;&gt;""," "&amp;$L4&amp;"-neg",""))
+&amp;IF($D4&lt;&gt;""," "&amp;$D4,"")&amp;", by "&amp;$C4&amp;" result")</f>
         <v>Adenovirus, by ELISA result</v>
       </c>
       <c r="O4" s="2" t="str">
-        <f t="shared" ref="O4:O12" si="1">"Raw "&amp;LOWER($E4)&amp;" data for "&amp;$B4</f>
+        <f t="shared" ref="O4:O12" si="1">TRIM("Raw "&amp;LOWER($E4)&amp;" data for "&amp;$B4)</f>
         <v>Raw virus data for blood</v>
       </c>
     </row>

--- a/Load/ontology/script/raw_detection_template.xlsx
+++ b/Load/ontology/script/raw_detection_template.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jjudkins/ontology/script/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jjudkins/Documents/GitHub/ApiCommonData/Load/ontology/script/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59417DB4-F22F-0544-B231-8921CFA204E5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F8FFFF7-F205-534E-B9E6-FB7AF706EE94}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19340" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="raw_detection_template" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="69">
   <si>
     <t>variable</t>
   </si>
@@ -199,6 +199,57 @@
       </rPr>
       <t>Then, enter any additional specifics from data provider (serotype, gene) UNLESS species is E. coli.</t>
     </r>
+  </si>
+  <si>
+    <t>differential medium assay</t>
+  </si>
+  <si>
+    <t>fluorogenic PCR assay</t>
+  </si>
+  <si>
+    <t>microscopy</t>
+  </si>
+  <si>
+    <t>microscopy assay</t>
+  </si>
+  <si>
+    <t>thin smear microscopy</t>
+  </si>
+  <si>
+    <t>thick smear microscopy</t>
+  </si>
+  <si>
+    <t>qPCR</t>
+  </si>
+  <si>
+    <t>OptiMAL RDT</t>
+  </si>
+  <si>
+    <t>RDT</t>
+  </si>
+  <si>
+    <t>multiple methods</t>
+  </si>
+  <si>
+    <t>LAMP</t>
+  </si>
+  <si>
+    <t>RT-PCR</t>
+  </si>
+  <si>
+    <t>modified acid stain microscopy</t>
+  </si>
+  <si>
+    <t>wet prep microscopy</t>
+  </si>
+  <si>
+    <t>real time polymerase chain reaction assay</t>
+  </si>
+  <si>
+    <t>(OptiMAL-IT is a product, not an assay, in OBO)</t>
+  </si>
+  <si>
+    <t>(loop-mediated thermal amplification)</t>
   </si>
 </sst>
 </file>
@@ -1051,10 +1102,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O12"/>
+  <dimension ref="A1:T15"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <pane xSplit="1" ySplit="2" topLeftCell="K3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
       <selection pane="bottomRight" activeCell="N3" sqref="N3"/>
@@ -1080,7 +1131,7 @@
     <col min="16" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="51" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:20" ht="51" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1124,7 +1175,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:15" ht="102" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:20" ht="102" x14ac:dyDescent="0.2">
       <c r="B2" s="2" t="s">
         <v>28</v>
       </c>
@@ -1153,7 +1204,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="3" spans="1:15" ht="125" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:20" ht="125" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="2" t="s">
         <v>12</v>
       </c>
@@ -1172,12 +1223,11 @@
       <c r="N3" s="2" t="str">
         <f>TRIM(IF($H3="",$G3,"")
 &amp;IF($H3&lt;&gt;"",$H3,"")
-&amp;IF(AND($L3="LT",I3="ST")," LT-neg ST-pos",
-IF($I3&lt;&gt;""," "&amp;$I3,"")
+&amp;IF($I3&lt;&gt;""," "&amp;$I3,"")
 &amp;IF(OR($I3="LT",$I3="ST",AND($D3="",$I3&lt;&gt;"")),"-pos","")
 &amp;IF($K3&lt;&gt;""," "&amp;$K3,"")
 &amp;IF($J3&lt;&gt;""," "&amp;$J3&amp;"-pos","")
-&amp;IF($L3&lt;&gt;""," "&amp;$L3&amp;"-neg",""))
+&amp;IF($L3&lt;&gt;""," "&amp;$L3&amp;"-neg","")
 &amp;IF($D3&lt;&gt;""," "&amp;$D3,"")&amp;", by "&amp;$C3&amp;" result")</f>
         <v>Vibrio cholerae, by bacteriology result</v>
       </c>
@@ -1185,8 +1235,14 @@
         <f>TRIM("Raw "&amp;LOWER($E3)&amp;" data for "&amp;$B3)</f>
         <v>Raw bacteria data for stool</v>
       </c>
+      <c r="Q3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="R3" s="1" t="s">
+        <v>52</v>
+      </c>
     </row>
-    <row r="4" spans="1:15" ht="42" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:20" ht="42" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B4" s="2" t="s">
         <v>46</v>
       </c>
@@ -1218,8 +1274,14 @@
         <f t="shared" ref="O4:O12" si="1">TRIM("Raw "&amp;LOWER($E4)&amp;" data for "&amp;$B4)</f>
         <v>Raw virus data for blood</v>
       </c>
+      <c r="Q4" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="R4" s="1" t="s">
+        <v>53</v>
+      </c>
     </row>
-    <row r="5" spans="1:15" ht="34" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:20" ht="34" x14ac:dyDescent="0.2">
       <c r="B5" s="2" t="s">
         <v>29</v>
       </c>
@@ -1246,8 +1308,14 @@
         <f t="shared" si="1"/>
         <v>Raw bacteria data for urine</v>
       </c>
+      <c r="Q5" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="R5" s="1" t="s">
+        <v>55</v>
+      </c>
     </row>
-    <row r="6" spans="1:15" ht="34" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:20" ht="34" x14ac:dyDescent="0.2">
       <c r="B6" s="2" t="s">
         <v>29</v>
       </c>
@@ -1274,8 +1342,11 @@
         <f t="shared" si="1"/>
         <v>Raw eukaryota data for urine</v>
       </c>
+      <c r="Q6" s="1" t="s">
+        <v>56</v>
+      </c>
     </row>
-    <row r="7" spans="1:15" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:20" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B7" s="2" t="s">
         <v>12</v>
       </c>
@@ -1299,8 +1370,11 @@
         <f t="shared" si="1"/>
         <v>Raw bacteria data for stool</v>
       </c>
+      <c r="Q7" s="1" t="s">
+        <v>57</v>
+      </c>
     </row>
-    <row r="8" spans="1:15" ht="42" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:20" ht="42" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B8" s="2" t="s">
         <v>12</v>
       </c>
@@ -1327,8 +1401,14 @@
         <f t="shared" si="1"/>
         <v>Raw virus data for stool</v>
       </c>
+      <c r="Q8" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="R8" s="1" t="s">
+        <v>66</v>
+      </c>
     </row>
-    <row r="9" spans="1:15" ht="64" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:20" ht="64" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B9" s="2" t="s">
         <v>12</v>
       </c>
@@ -1355,8 +1435,14 @@
         <f t="shared" si="1"/>
         <v>Raw virus data for stool</v>
       </c>
+      <c r="Q9" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="T9" s="1" t="s">
+        <v>67</v>
+      </c>
     </row>
-    <row r="10" spans="1:15" ht="67" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:20" ht="67" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B10" s="2" t="s">
         <v>12</v>
       </c>
@@ -1389,8 +1475,11 @@
         <f t="shared" si="1"/>
         <v>Raw bacteria data for stool</v>
       </c>
+      <c r="Q10" s="1" t="s">
+        <v>60</v>
+      </c>
     </row>
-    <row r="11" spans="1:15" ht="34" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:20" ht="34" x14ac:dyDescent="0.2">
       <c r="B11" s="2" t="s">
         <v>12</v>
       </c>
@@ -1423,8 +1512,11 @@
         <f t="shared" si="1"/>
         <v>Raw bacteria data for stool</v>
       </c>
+      <c r="Q11" s="1" t="s">
+        <v>61</v>
+      </c>
     </row>
-    <row r="12" spans="1:15" ht="34" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:20" ht="34" x14ac:dyDescent="0.2">
       <c r="B12" s="2" t="s">
         <v>12</v>
       </c>
@@ -1450,6 +1542,27 @@
       <c r="O12" s="2" t="str">
         <f t="shared" si="1"/>
         <v>Raw bacteria data for stool</v>
+      </c>
+      <c r="Q12" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="T12" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="Q13" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="Q14" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="Q15" s="1" t="s">
+        <v>65</v>
       </c>
     </row>
   </sheetData>

--- a/Load/ontology/script/raw_detection_template.xlsx
+++ b/Load/ontology/script/raw_detection_template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jjudkins/Documents/GitHub/ApiCommonData/Load/ontology/script/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F8FFFF7-F205-534E-B9E6-FB7AF706EE94}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58F6BCF1-0E73-2540-A9CD-B63D2489197F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="72">
   <si>
     <t>variable</t>
   </si>
@@ -250,6 +250,15 @@
   </si>
   <si>
     <t>(loop-mediated thermal amplification)</t>
+  </si>
+  <si>
+    <t>ontological label</t>
+  </si>
+  <si>
+    <t>subclass axiom</t>
+  </si>
+  <si>
+    <t>subclass</t>
   </si>
 </sst>
 </file>
@@ -1102,13 +1111,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:T15"/>
+  <dimension ref="A1:V15"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="K3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="F3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="N3" sqref="N3"/>
+      <selection pane="bottomRight" activeCell="T2" sqref="T2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1127,11 +1136,14 @@
     <col min="12" max="12" width="22.6640625" style="1" customWidth="1"/>
     <col min="13" max="13" width="23.33203125" style="1" customWidth="1"/>
     <col min="14" max="14" width="30.33203125" style="2" customWidth="1"/>
-    <col min="15" max="15" width="18.33203125" style="2" customWidth="1"/>
-    <col min="16" max="16384" width="10.83203125" style="1"/>
+    <col min="15" max="16" width="18.33203125" style="2" customWidth="1"/>
+    <col min="17" max="17" width="17.1640625" style="2" customWidth="1"/>
+    <col min="18" max="18" width="10.83203125" style="2"/>
+    <col min="19" max="20" width="15.5" style="2" customWidth="1"/>
+    <col min="21" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" ht="51" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:22" ht="51" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1174,8 +1186,17 @@
       <c r="O1" s="2" t="s">
         <v>11</v>
       </c>
+      <c r="T1" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="V1" s="2" t="s">
+        <v>70</v>
+      </c>
     </row>
-    <row r="2" spans="1:20" ht="102" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:22" ht="102" x14ac:dyDescent="0.2">
       <c r="B2" s="2" t="s">
         <v>28</v>
       </c>
@@ -1204,7 +1225,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="3" spans="1:20" ht="125" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:22" ht="125" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="2" t="s">
         <v>12</v>
       </c>
@@ -1235,14 +1256,14 @@
         <f>TRIM("Raw "&amp;LOWER($E3)&amp;" data for "&amp;$B3)</f>
         <v>Raw bacteria data for stool</v>
       </c>
-      <c r="Q3" s="1" t="s">
+      <c r="Q3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="R3" s="1" t="s">
+      <c r="R3" s="2" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="4" spans="1:20" ht="42" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:22" ht="42" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B4" s="2" t="s">
         <v>46</v>
       </c>
@@ -1274,14 +1295,14 @@
         <f t="shared" ref="O4:O12" si="1">TRIM("Raw "&amp;LOWER($E4)&amp;" data for "&amp;$B4)</f>
         <v>Raw virus data for blood</v>
       </c>
-      <c r="Q4" s="1" t="s">
+      <c r="Q4" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="R4" s="1" t="s">
+      <c r="R4" s="2" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="5" spans="1:20" ht="34" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:22" ht="34" x14ac:dyDescent="0.2">
       <c r="B5" s="2" t="s">
         <v>29</v>
       </c>
@@ -1308,14 +1329,14 @@
         <f t="shared" si="1"/>
         <v>Raw bacteria data for urine</v>
       </c>
-      <c r="Q5" s="1" t="s">
+      <c r="Q5" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="R5" s="1" t="s">
+      <c r="R5" s="2" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="6" spans="1:20" ht="34" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:22" ht="34" x14ac:dyDescent="0.2">
       <c r="B6" s="2" t="s">
         <v>29</v>
       </c>
@@ -1342,11 +1363,11 @@
         <f t="shared" si="1"/>
         <v>Raw eukaryota data for urine</v>
       </c>
-      <c r="Q6" s="1" t="s">
+      <c r="Q6" s="2" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="7" spans="1:20" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:22" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B7" s="2" t="s">
         <v>12</v>
       </c>
@@ -1370,11 +1391,11 @@
         <f t="shared" si="1"/>
         <v>Raw bacteria data for stool</v>
       </c>
-      <c r="Q7" s="1" t="s">
+      <c r="Q7" s="2" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="8" spans="1:20" ht="42" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:22" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B8" s="2" t="s">
         <v>12</v>
       </c>
@@ -1401,14 +1422,14 @@
         <f t="shared" si="1"/>
         <v>Raw virus data for stool</v>
       </c>
-      <c r="Q8" s="1" t="s">
+      <c r="Q8" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="R8" s="1" t="s">
+      <c r="R8" s="2" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="9" spans="1:20" ht="64" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:22" ht="64" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B9" s="2" t="s">
         <v>12</v>
       </c>
@@ -1435,14 +1456,14 @@
         <f t="shared" si="1"/>
         <v>Raw virus data for stool</v>
       </c>
-      <c r="Q9" s="1" t="s">
+      <c r="Q9" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="T9" s="1" t="s">
+      <c r="S9" s="2" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="10" spans="1:20" ht="67" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:22" ht="67" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B10" s="2" t="s">
         <v>12</v>
       </c>
@@ -1475,11 +1496,11 @@
         <f t="shared" si="1"/>
         <v>Raw bacteria data for stool</v>
       </c>
-      <c r="Q10" s="1" t="s">
+      <c r="Q10" s="2" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="11" spans="1:20" ht="34" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:22" ht="34" x14ac:dyDescent="0.2">
       <c r="B11" s="2" t="s">
         <v>12</v>
       </c>
@@ -1512,11 +1533,11 @@
         <f t="shared" si="1"/>
         <v>Raw bacteria data for stool</v>
       </c>
-      <c r="Q11" s="1" t="s">
+      <c r="Q11" s="2" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="12" spans="1:20" ht="34" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:22" ht="51" x14ac:dyDescent="0.2">
       <c r="B12" s="2" t="s">
         <v>12</v>
       </c>
@@ -1543,25 +1564,25 @@
         <f t="shared" si="1"/>
         <v>Raw bacteria data for stool</v>
       </c>
-      <c r="Q12" s="1" t="s">
+      <c r="Q12" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="T12" s="1" t="s">
+      <c r="S12" s="2" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="Q13" s="1" t="s">
+    <row r="13" spans="1:22" ht="17" x14ac:dyDescent="0.2">
+      <c r="Q13" s="2" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="Q14" s="1" t="s">
+    <row r="14" spans="1:22" ht="34" x14ac:dyDescent="0.2">
+      <c r="Q14" s="2" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="Q15" s="1" t="s">
+    <row r="15" spans="1:22" ht="34" x14ac:dyDescent="0.2">
+      <c r="Q15" s="2" t="s">
         <v>65</v>
       </c>
     </row>

--- a/Load/ontology/script/raw_detection_template.xlsx
+++ b/Load/ontology/script/raw_detection_template.xlsx
@@ -1,26 +1,34 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10909"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10917"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jjudkins/Documents/GitHub/ApiCommonData/Load/ontology/script/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58F6BCF1-0E73-2540-A9CD-B63D2489197F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54825C02-AE46-614A-9D5E-E1DA93E6CC4D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="raw_detection_template" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="24">
   <si>
     <t>variable</t>
   </si>
@@ -31,9 +39,6 @@
     <t>assay type</t>
   </si>
   <si>
-    <t>bacteriology</t>
-  </si>
-  <si>
     <t>website label</t>
   </si>
   <si>
@@ -64,81 +69,12 @@
     <t>value specification</t>
   </si>
   <si>
-    <t>Ct value</t>
-  </si>
-  <si>
-    <t>Bacteria</t>
-  </si>
-  <si>
-    <t>Vibrio</t>
-  </si>
-  <si>
-    <t>Vibrio cholerae</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Adenovirus </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Aeromonas </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ancylostoma </t>
-  </si>
-  <si>
-    <t>Virus</t>
-  </si>
-  <si>
-    <t>Eukaryota</t>
-  </si>
-  <si>
-    <t>Adenovirus</t>
-  </si>
-  <si>
-    <t>Aeromonas</t>
-  </si>
-  <si>
-    <t>Ancylostoma</t>
-  </si>
-  <si>
-    <t>TAC</t>
-  </si>
-  <si>
     <t>E.g.: bacteriology, TAC, ELISA, … . Leave blank for MALED aggregate data.</t>
   </si>
   <si>
     <t>E.g.: blood, stool, urine</t>
   </si>
   <si>
-    <t>urine</t>
-  </si>
-  <si>
-    <t>Campylobacter</t>
-  </si>
-  <si>
-    <t>ELISA</t>
-  </si>
-  <si>
-    <t>Norovirus GII.4</t>
-  </si>
-  <si>
-    <t>Norovirus</t>
-  </si>
-  <si>
-    <t>Chikungunya</t>
-  </si>
-  <si>
-    <t>OD cutoff value</t>
-  </si>
-  <si>
-    <t>SD Bioline IgM ELISA</t>
-  </si>
-  <si>
-    <t>Escherichia coli</t>
-  </si>
-  <si>
-    <t>Escherichia</t>
-  </si>
-  <si>
     <t>if ETEC, STEC, etc. enter it here</t>
   </si>
   <si>
@@ -149,18 +85,6 @@
   </si>
   <si>
     <t>e.g. Ct value</t>
-  </si>
-  <si>
-    <t>ETEC</t>
-  </si>
-  <si>
-    <t>LT</t>
-  </si>
-  <si>
-    <t>ST</t>
-  </si>
-  <si>
-    <t>blood</t>
   </si>
   <si>
     <t>Parent term in ClinEpi</t>
@@ -199,66 +123,6 @@
       </rPr>
       <t>Then, enter any additional specifics from data provider (serotype, gene) UNLESS species is E. coli.</t>
     </r>
-  </si>
-  <si>
-    <t>differential medium assay</t>
-  </si>
-  <si>
-    <t>fluorogenic PCR assay</t>
-  </si>
-  <si>
-    <t>microscopy</t>
-  </si>
-  <si>
-    <t>microscopy assay</t>
-  </si>
-  <si>
-    <t>thin smear microscopy</t>
-  </si>
-  <si>
-    <t>thick smear microscopy</t>
-  </si>
-  <si>
-    <t>qPCR</t>
-  </si>
-  <si>
-    <t>OptiMAL RDT</t>
-  </si>
-  <si>
-    <t>RDT</t>
-  </si>
-  <si>
-    <t>multiple methods</t>
-  </si>
-  <si>
-    <t>LAMP</t>
-  </si>
-  <si>
-    <t>RT-PCR</t>
-  </si>
-  <si>
-    <t>modified acid stain microscopy</t>
-  </si>
-  <si>
-    <t>wet prep microscopy</t>
-  </si>
-  <si>
-    <t>real time polymerase chain reaction assay</t>
-  </si>
-  <si>
-    <t>(OptiMAL-IT is a product, not an assay, in OBO)</t>
-  </si>
-  <si>
-    <t>(loop-mediated thermal amplification)</t>
-  </si>
-  <si>
-    <t>ontological label</t>
-  </si>
-  <si>
-    <t>subclass axiom</t>
-  </si>
-  <si>
-    <t>subclass</t>
   </si>
 </sst>
 </file>
@@ -1111,13 +975,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:V15"/>
+  <dimension ref="A1:W12"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="F3" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="T2" sqref="T2"/>
+      <selection pane="bottomRight" activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1138,12 +1002,15 @@
     <col min="14" max="14" width="30.33203125" style="2" customWidth="1"/>
     <col min="15" max="16" width="18.33203125" style="2" customWidth="1"/>
     <col min="17" max="17" width="17.1640625" style="2" customWidth="1"/>
-    <col min="18" max="18" width="10.83203125" style="2"/>
-    <col min="19" max="20" width="15.5" style="2" customWidth="1"/>
-    <col min="21" max="16384" width="10.83203125" style="1"/>
+    <col min="18" max="18" width="13.83203125" style="2" customWidth="1"/>
+    <col min="19" max="19" width="15.5" style="2" customWidth="1"/>
+    <col min="20" max="20" width="24.5" style="2" customWidth="1"/>
+    <col min="21" max="21" width="18" style="2" customWidth="1"/>
+    <col min="22" max="22" width="42.83203125" style="2" customWidth="1"/>
+    <col min="23" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" ht="51" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:23" ht="51" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1154,93 +1021,70 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="W1" s="2"/>
+    </row>
+    <row r="2" spans="1:23" ht="102" x14ac:dyDescent="0.2">
+      <c r="B2" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="G1" s="1" t="s">
+      <c r="D2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="N1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="O1" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="T1" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="V1" s="2" t="s">
-        <v>70</v>
+      <c r="G2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="O2" s="2" t="s">
+        <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:22" ht="102" x14ac:dyDescent="0.2">
-      <c r="B2" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="O2" s="2" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="3" spans="1:22" ht="125" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>17</v>
-      </c>
+    <row r="3" spans="1:23" ht="125" customHeight="1" x14ac:dyDescent="0.2">
       <c r="N3" s="2" t="str">
         <f>TRIM(IF($H3="",$G3,"")
 &amp;IF($H3&lt;&gt;"",$H3,"")
@@ -1250,340 +1094,40 @@
 &amp;IF($J3&lt;&gt;""," "&amp;$J3&amp;"-pos","")
 &amp;IF($L3&lt;&gt;""," "&amp;$L3&amp;"-neg","")
 &amp;IF($D3&lt;&gt;""," "&amp;$D3,"")&amp;", by "&amp;$C3&amp;" result")</f>
-        <v>Vibrio cholerae, by bacteriology result</v>
+        <v>, by result</v>
       </c>
       <c r="O3" s="2" t="str">
         <f>TRIM("Raw "&amp;LOWER($E3)&amp;" data for "&amp;$B3)</f>
-        <v>Raw bacteria data for stool</v>
-      </c>
-      <c r="Q3" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="R3" s="2" t="s">
-        <v>52</v>
+        <v>Raw data for</v>
       </c>
     </row>
-    <row r="4" spans="1:22" ht="42" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="N4" s="2" t="str">
-        <f t="shared" ref="N4:N12" si="0">TRIM(IF($H4="",$G4,"")
-&amp;IF($H4&lt;&gt;"",$H4,"")
-&amp;IF(AND($L4="LT",I4="ST")," LT-neg ST-pos",
-IF($I4&lt;&gt;""," "&amp;$I4,"")
-&amp;IF(OR($I4="LT",$I4="ST",AND($D4="",$I4&lt;&gt;"")),"-pos","")
-&amp;IF($K4&lt;&gt;""," "&amp;$K4,"")
-&amp;IF($J4&lt;&gt;""," "&amp;$J4&amp;"-pos","")
-&amp;IF($L4&lt;&gt;""," "&amp;$L4&amp;"-neg",""))
-&amp;IF($D4&lt;&gt;""," "&amp;$D4,"")&amp;", by "&amp;$C4&amp;" result")</f>
-        <v>Adenovirus, by ELISA result</v>
-      </c>
-      <c r="O4" s="2" t="str">
-        <f t="shared" ref="O4:O12" si="1">TRIM("Raw "&amp;LOWER($E4)&amp;" data for "&amp;$B4)</f>
-        <v>Raw virus data for blood</v>
-      </c>
-      <c r="Q4" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="R4" s="2" t="s">
-        <v>53</v>
+    <row r="4" spans="1:23" ht="81" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="5" spans="1:23" ht="106" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="6" spans="1:23" ht="101" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="7" spans="1:23" ht="94" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="8" spans="1:23" ht="99" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B8" s="2" t="s">
+        <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:22" ht="34" x14ac:dyDescent="0.2">
-      <c r="B5" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="N5" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>Aeromonas Ct value, by TAC result</v>
-      </c>
-      <c r="O5" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>Raw bacteria data for urine</v>
-      </c>
-      <c r="Q5" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="R5" s="2" t="s">
-        <v>55</v>
+    <row r="9" spans="1:23" ht="64" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B9" s="2" t="s">
+        <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:22" ht="34" x14ac:dyDescent="0.2">
-      <c r="B6" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="N6" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>Ancylostoma Ct value, by TAC result</v>
-      </c>
-      <c r="O6" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>Raw eukaryota data for urine</v>
-      </c>
-      <c r="Q6" s="2" t="s">
-        <v>56</v>
+    <row r="10" spans="1:23" ht="94" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B10" s="2" t="s">
+        <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:22" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="N7" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>Campylobacter, by ELISA result</v>
-      </c>
-      <c r="O7" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>Raw bacteria data for stool</v>
-      </c>
-      <c r="Q7" s="2" t="s">
-        <v>57</v>
+    <row r="11" spans="1:23" ht="62" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B11" s="2" t="s">
+        <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:22" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B8" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="N8" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>Norovirus GII.4 Ct value, by TAC result</v>
-      </c>
-      <c r="O8" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>Raw virus data for stool</v>
-      </c>
-      <c r="Q8" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="R8" s="2" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="9" spans="1:22" ht="64" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="N9" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>Chikungunya OD cutoff value, by SD Bioline IgM ELISA result</v>
-      </c>
-      <c r="O9" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>Raw virus data for stool</v>
-      </c>
-      <c r="Q9" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="S9" s="2" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="10" spans="1:22" ht="67" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B10" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="H10" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="I10" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="L10" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="N10" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>ETEC LT-pos ST-neg, by TAC result</v>
-      </c>
-      <c r="O10" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>Raw bacteria data for stool</v>
-      </c>
-      <c r="Q10" s="2" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="11" spans="1:22" ht="34" x14ac:dyDescent="0.2">
-      <c r="B11" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="G11" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="H11" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="I11" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="L11" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="N11" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>ETEC LT-neg ST-pos, by TAC result</v>
-      </c>
-      <c r="O11" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>Raw bacteria data for stool</v>
-      </c>
-      <c r="Q11" s="2" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="12" spans="1:22" ht="51" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:23" ht="17" x14ac:dyDescent="0.2">
       <c r="B12" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="G12" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="N12" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>Escherichia coli Ct value, by TAC result</v>
-      </c>
-      <c r="O12" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>Raw bacteria data for stool</v>
-      </c>
-      <c r="Q12" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="S12" s="2" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="13" spans="1:22" ht="17" x14ac:dyDescent="0.2">
-      <c r="Q13" s="2" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="14" spans="1:22" ht="34" x14ac:dyDescent="0.2">
-      <c r="Q14" s="2" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="15" spans="1:22" ht="34" x14ac:dyDescent="0.2">
-      <c r="Q15" s="2" t="s">
-        <v>65</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>
